--- a/projetos/data_analysis/Checklist_Veiculos_.xlsx
+++ b/projetos/data_analysis/Checklist_Veiculos_.xlsx
@@ -443,25 +443,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>NJF-2P27</v>
+        <v>DGS-8E73</v>
       </c>
       <c r="C2" t="str">
-        <v>LUZIA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D2" t="str">
-        <v>01/12/2024 08:00</v>
+        <v>01/12/2024 06:41</v>
       </c>
       <c r="E2" t="str">
-        <v>01/12/2024 08:22</v>
+        <v>01/12/2024 06:49</v>
       </c>
       <c r="F2" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>AMAZON</v>
       </c>
       <c r="G2" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H2" t="str">
-        <v>Espelho retrovisor danificado</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="3">
@@ -469,25 +469,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>RGX-1H89</v>
+        <v>BEZ-0L89</v>
       </c>
       <c r="C3" t="str">
-        <v>GIOVANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D3" t="str">
-        <v>01/12/2024 08:33</v>
+        <v>01/12/2024 08:07</v>
       </c>
       <c r="E3" t="str">
-        <v>01/12/2024 08:56</v>
+        <v>01/12/2024 08:13</v>
       </c>
       <c r="F3" t="str">
-        <v>AMAZON</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G3" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H3" t="str">
-        <v>Veículo em perfeitas condições</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="4">
@@ -495,25 +495,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>NWY-3B30</v>
+        <v>OCK-0T40</v>
       </c>
       <c r="C4" t="str">
         <v>GIOVANA</v>
       </c>
       <c r="D4" t="str">
-        <v>01/12/2024 09:13</v>
+        <v>01/12/2024 08:09</v>
       </c>
       <c r="E4" t="str">
-        <v>01/12/2024 09:37</v>
+        <v>01/12/2024 08:18</v>
       </c>
       <c r="F4" t="str">
-        <v>SHEIN</v>
+        <v>AMAZON</v>
       </c>
       <c r="G4" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H4" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="5">
@@ -521,25 +521,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>PHC-1W16</v>
+        <v>USA-7L41</v>
       </c>
       <c r="C5" t="str">
-        <v>ALINE</v>
+        <v>CAMILA</v>
       </c>
       <c r="D5" t="str">
-        <v>01/12/2024 09:42</v>
+        <v>01/12/2024 09:27</v>
       </c>
       <c r="E5" t="str">
-        <v>01/12/2024 10:01</v>
+        <v>01/12/2024 09:52</v>
       </c>
       <c r="F5" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>AMAZON</v>
       </c>
       <c r="G5" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H5" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="6">
@@ -547,25 +547,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>MGJ-9F52</v>
+        <v>ELF-9G19</v>
       </c>
       <c r="C6" t="str">
-        <v>GIOVANA</v>
+        <v>ALINE</v>
       </c>
       <c r="D6" t="str">
-        <v>01/12/2024 10:07</v>
+        <v>01/12/2024 11:51</v>
       </c>
       <c r="E6" t="str">
-        <v>01/12/2024 10:26</v>
+        <v>01/12/2024 11:58</v>
       </c>
       <c r="F6" t="str">
         <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G6" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H6" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="7">
@@ -573,25 +573,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>KST-7V59</v>
+        <v>YSE-1X86</v>
       </c>
       <c r="C7" t="str">
         <v>GABRIELA</v>
       </c>
       <c r="D7" t="str">
-        <v>01/12/2024 10:33</v>
+        <v>02/12/2024 07:04</v>
       </c>
       <c r="E7" t="str">
-        <v>01/12/2024 10:57</v>
+        <v>02/12/2024 07:19</v>
       </c>
       <c r="F7" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G7" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H7" t="str">
-        <v>Sem irregularidades</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="8">
@@ -599,25 +599,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>IEQ-3C21</v>
+        <v>JOJ-9W63</v>
       </c>
       <c r="C8" t="str">
-        <v>ALANA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D8" t="str">
-        <v>01/12/2024 11:04</v>
+        <v>02/12/2024 07:54</v>
       </c>
       <c r="E8" t="str">
-        <v>01/12/2024 11:23</v>
+        <v>02/12/2024 08:21</v>
       </c>
       <c r="F8" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G8" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H8" t="str">
-        <v>Pequeno risco na lateral direita</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="9">
@@ -625,16 +625,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>UMW-1Q37</v>
+        <v>RVC-5C25</v>
       </c>
       <c r="C9" t="str">
-        <v>LUZIA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D9" t="str">
-        <v>01/12/2024 11:30</v>
+        <v>02/12/2024 08:04</v>
       </c>
       <c r="E9" t="str">
-        <v>01/12/2024 11:53</v>
+        <v>02/12/2024 08:19</v>
       </c>
       <c r="F9" t="str">
         <v>MERCADO LIVRE</v>
@@ -643,7 +643,7 @@
         <v>APROVADO</v>
       </c>
       <c r="H9" t="str">
-        <v>Veículo em perfeitas condições</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="10">
@@ -651,25 +651,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>DBW-7T98</v>
+        <v>FEM-6R61</v>
       </c>
       <c r="C10" t="str">
-        <v>ALANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D10" t="str">
-        <v>01/12/2024 12:05</v>
+        <v>02/12/2024 08:07</v>
       </c>
       <c r="E10" t="str">
-        <v>01/12/2024 12:22</v>
+        <v>02/12/2024 08:36</v>
       </c>
       <c r="F10" t="str">
-        <v>SHEIN</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G10" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H10" t="str">
-        <v>Limpeza necessária</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="11">
@@ -677,25 +677,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>ALX-6S30</v>
+        <v>HIA-2Z70</v>
       </c>
       <c r="C11" t="str">
-        <v>CAMILA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D11" t="str">
-        <v>01/12/2024 12:33</v>
+        <v>02/12/2024 08:13</v>
       </c>
       <c r="E11" t="str">
-        <v>01/12/2024 12:55</v>
+        <v>02/12/2024 08:38</v>
       </c>
       <c r="F11" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G11" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H11" t="str">
-        <v>Espelho retrovisor danificado</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="12">
@@ -703,25 +703,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>UIL-1U42</v>
+        <v>COG-8X93</v>
       </c>
       <c r="C12" t="str">
-        <v>ALINE</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D12" t="str">
-        <v>01/12/2024 13:04</v>
+        <v>02/12/2024 08:37</v>
       </c>
       <c r="E12" t="str">
-        <v>01/12/2024 13:21</v>
+        <v>02/12/2024 08:56</v>
       </c>
       <c r="F12" t="str">
-        <v>SHEIN</v>
+        <v>AMAZON</v>
       </c>
       <c r="G12" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H12" t="str">
-        <v>Espelho retrovisor danificado</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="13">
@@ -729,25 +729,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>XFB-5V45</v>
+        <v>LUD-0H38</v>
       </c>
       <c r="C13" t="str">
-        <v>ALANA</v>
+        <v>ALINE</v>
       </c>
       <c r="D13" t="str">
-        <v>01/12/2024 13:44</v>
+        <v>02/12/2024 10:36</v>
       </c>
       <c r="E13" t="str">
-        <v>01/12/2024 14:01</v>
+        <v>02/12/2024 10:53</v>
       </c>
       <c r="F13" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>SHEIN</v>
       </c>
       <c r="G13" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H13" t="str">
-        <v>Espelho retrovisor danificado</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="14">
@@ -755,25 +755,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>GXC-7C72</v>
+        <v>RRT-2D52</v>
       </c>
       <c r="C14" t="str">
         <v>ALANA</v>
       </c>
       <c r="D14" t="str">
-        <v>01/12/2024 14:12</v>
+        <v>03/12/2024 06:17</v>
       </c>
       <c r="E14" t="str">
-        <v>01/12/2024 14:29</v>
+        <v>03/12/2024 06:34</v>
       </c>
       <c r="F14" t="str">
-        <v>AMAZON</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G14" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H14" t="str">
-        <v>Veículo em perfeitas condições</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="15">
@@ -781,25 +781,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>CBV-4T71</v>
+        <v>FPF-0C60</v>
       </c>
       <c r="C15" t="str">
-        <v>GIOVANA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D15" t="str">
-        <v>01/12/2024 14:30</v>
+        <v>03/12/2024 06:32</v>
       </c>
       <c r="E15" t="str">
-        <v>01/12/2024 14:48</v>
+        <v>03/12/2024 06:44</v>
       </c>
       <c r="F15" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>AMAZON</v>
       </c>
       <c r="G15" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H15" t="str">
-        <v>Sem irregularidades</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="16">
@@ -807,19 +807,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>ZBY-2G50</v>
+        <v>NKW-3E53</v>
       </c>
       <c r="C16" t="str">
-        <v>CAMILA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D16" t="str">
-        <v>01/12/2024 15:04</v>
+        <v>03/12/2024 07:07</v>
       </c>
       <c r="E16" t="str">
-        <v>01/12/2024 15:26</v>
+        <v>03/12/2024 07:34</v>
       </c>
       <c r="F16" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>AMAZON</v>
       </c>
       <c r="G16" t="str">
         <v>APROVADO</v>
@@ -833,16 +833,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>PFL-9G07</v>
+        <v>SHG-1Q68</v>
       </c>
       <c r="C17" t="str">
-        <v>ALINE</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D17" t="str">
-        <v>01/12/2024 15:44</v>
+        <v>03/12/2024 07:45</v>
       </c>
       <c r="E17" t="str">
-        <v>01/12/2024 16:08</v>
+        <v>03/12/2024 08:07</v>
       </c>
       <c r="F17" t="str">
         <v>AMAZON</v>
@@ -859,25 +859,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>MNV-8B59</v>
+        <v>NHI-1R98</v>
       </c>
       <c r="C18" t="str">
-        <v>LUZIA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D18" t="str">
-        <v>01/12/2024 16:10</v>
+        <v>03/12/2024 08:02</v>
       </c>
       <c r="E18" t="str">
-        <v>01/12/2024 16:34</v>
+        <v>03/12/2024 08:32</v>
       </c>
       <c r="F18" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>AMAZON</v>
       </c>
       <c r="G18" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H18" t="str">
-        <v>Limpeza necessária</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="19">
@@ -885,25 +885,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>DQK-3J54</v>
+        <v>NFG-4M74</v>
       </c>
       <c r="C19" t="str">
-        <v>ALINE</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D19" t="str">
-        <v>01/12/2024 16:43</v>
+        <v>03/12/2024 09:38</v>
       </c>
       <c r="E19" t="str">
-        <v>01/12/2024 17:02</v>
+        <v>03/12/2024 09:50</v>
       </c>
       <c r="F19" t="str">
         <v>MERCADO LIVRE</v>
       </c>
       <c r="G19" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H19" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="20">
@@ -911,25 +911,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>IAJ-6R81</v>
+        <v>VPW-4F54</v>
       </c>
       <c r="C20" t="str">
-        <v>GIOVANA</v>
+        <v>ALANA</v>
       </c>
       <c r="D20" t="str">
-        <v>01/12/2024 17:12</v>
+        <v>03/12/2024 10:11</v>
       </c>
       <c r="E20" t="str">
-        <v>01/12/2024 17:28</v>
+        <v>03/12/2024 10:38</v>
       </c>
       <c r="F20" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>AMAZON</v>
       </c>
       <c r="G20" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H20" t="str">
-        <v>Pneus verificados e calibrados</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="21">
@@ -937,25 +937,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>KWN-3Z89</v>
+        <v>ZDP-3T61</v>
       </c>
       <c r="C21" t="str">
-        <v>ALANA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D21" t="str">
-        <v>01/12/2024 17:32</v>
+        <v>03/12/2024 12:35</v>
       </c>
       <c r="E21" t="str">
-        <v>01/12/2024 17:50</v>
+        <v>03/12/2024 12:46</v>
       </c>
       <c r="F21" t="str">
-        <v>AMAZON</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G21" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H21" t="str">
-        <v>Documentação em ordem</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="22">
@@ -963,25 +963,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>VZX-6Z77</v>
+        <v>EQO-8W65</v>
       </c>
       <c r="C22" t="str">
-        <v>ALANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D22" t="str">
-        <v>01/12/2024 18:08</v>
+        <v>04/12/2024 07:25</v>
       </c>
       <c r="E22" t="str">
-        <v>01/12/2024 18:26</v>
+        <v>04/12/2024 07:55</v>
       </c>
       <c r="F22" t="str">
-        <v>SHEIN</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G22" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H22" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="23">
@@ -989,16 +989,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>AVB-4N52</v>
+        <v>LLP-4W71</v>
       </c>
       <c r="C23" t="str">
-        <v>LUZIA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D23" t="str">
-        <v>01/12/2024 18:34</v>
+        <v>04/12/2024 08:04</v>
       </c>
       <c r="E23" t="str">
-        <v>01/12/2024 18:50</v>
+        <v>04/12/2024 08:15</v>
       </c>
       <c r="F23" t="str">
         <v>MERCADO LIVRE</v>
@@ -1007,7 +1007,7 @@
         <v>APROVADO</v>
       </c>
       <c r="H23" t="str">
-        <v>Documentação em ordem</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="24">
@@ -1015,25 +1015,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>HNC-3B99</v>
+        <v>PAP-5U62</v>
       </c>
       <c r="C24" t="str">
-        <v>ALANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D24" t="str">
-        <v>01/12/2024 19:03</v>
+        <v>04/12/2024 09:01</v>
       </c>
       <c r="E24" t="str">
-        <v>01/12/2024 19:26</v>
+        <v>04/12/2024 09:22</v>
       </c>
       <c r="F24" t="str">
-        <v>AMAZON</v>
+        <v>SHEIN</v>
       </c>
       <c r="G24" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H24" t="str">
-        <v>Espelho retrovisor danificado</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="25">
@@ -1041,25 +1041,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>GQY-2H67</v>
+        <v>OWP-6E45</v>
       </c>
       <c r="C25" t="str">
         <v>ALINE</v>
       </c>
       <c r="D25" t="str">
-        <v>01/12/2024 19:40</v>
+        <v>04/12/2024 10:04</v>
       </c>
       <c r="E25" t="str">
-        <v>01/12/2024 20:03</v>
+        <v>04/12/2024 10:28</v>
       </c>
       <c r="F25" t="str">
         <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G25" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H25" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="26">
@@ -1067,25 +1067,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>YCJ-6G68</v>
+        <v>OQH-1N10</v>
       </c>
       <c r="C26" t="str">
-        <v>LUZIA</v>
+        <v>ALINE</v>
       </c>
       <c r="D26" t="str">
-        <v>01/12/2024 20:03</v>
+        <v>05/12/2024 07:22</v>
       </c>
       <c r="E26" t="str">
-        <v>01/12/2024 20:26</v>
+        <v>05/12/2024 07:49</v>
       </c>
       <c r="F26" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>AMAZON</v>
       </c>
       <c r="G26" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H26" t="str">
-        <v>Limpeza necessária</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="27">
@@ -1093,25 +1093,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>QDQ-2L40</v>
+        <v>DFP-6M37</v>
       </c>
       <c r="C27" t="str">
-        <v>CAMILA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D27" t="str">
-        <v>01/12/2024 20:34</v>
+        <v>05/12/2024 07:35</v>
       </c>
       <c r="E27" t="str">
-        <v>01/12/2024 20:51</v>
+        <v>05/12/2024 07:50</v>
       </c>
       <c r="F27" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G27" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H27" t="str">
-        <v>Limpeza necessária</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="28">
@@ -1119,25 +1119,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>DWQ-0O36</v>
+        <v>ESP-8Z94</v>
       </c>
       <c r="C28" t="str">
-        <v>ALANA</v>
+        <v>ALINE</v>
       </c>
       <c r="D28" t="str">
-        <v>01/12/2024 21:03</v>
+        <v>05/12/2024 10:13</v>
       </c>
       <c r="E28" t="str">
-        <v>01/12/2024 21:19</v>
+        <v>05/12/2024 10:34</v>
       </c>
       <c r="F28" t="str">
         <v>AMAZON</v>
       </c>
       <c r="G28" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H28" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="29">
@@ -1145,25 +1145,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>PZM-3V40</v>
+        <v>FVX-4C88</v>
       </c>
       <c r="C29" t="str">
-        <v>CAMILA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D29" t="str">
-        <v>01/12/2024 21:35</v>
+        <v>05/12/2024 14:22</v>
       </c>
       <c r="E29" t="str">
-        <v>01/12/2024 21:59</v>
+        <v>05/12/2024 14:40</v>
       </c>
       <c r="F29" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>SHEIN</v>
       </c>
       <c r="G29" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H29" t="str">
-        <v>Pneus verificados e calibrados</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="30">
@@ -1171,25 +1171,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>AKT-0Y72</v>
+        <v>FJC-2A70</v>
       </c>
       <c r="C30" t="str">
-        <v>ALINE</v>
+        <v>ALANA</v>
       </c>
       <c r="D30" t="str">
-        <v>01/12/2024 22:05</v>
+        <v>06/12/2024 08:20</v>
       </c>
       <c r="E30" t="str">
-        <v>01/12/2024 22:27</v>
+        <v>06/12/2024 08:43</v>
       </c>
       <c r="F30" t="str">
-        <v>AMAZON</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G30" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H30" t="str">
-        <v>Documentação em ordem</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="31">
@@ -1197,25 +1197,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>AMR-5M17</v>
+        <v>RMY-6R56</v>
       </c>
       <c r="C31" t="str">
-        <v>ALANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D31" t="str">
-        <v>01/12/2024 22:41</v>
+        <v>06/12/2024 08:27</v>
       </c>
       <c r="E31" t="str">
-        <v>01/12/2024 22:59</v>
+        <v>06/12/2024 08:57</v>
       </c>
       <c r="F31" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G31" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H31" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="32">
@@ -1223,25 +1223,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>VCK-0Z25</v>
+        <v>QOR-9C87</v>
       </c>
       <c r="C32" t="str">
-        <v>CAMILA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D32" t="str">
-        <v>01/12/2024 23:08</v>
+        <v>06/12/2024 08:30</v>
       </c>
       <c r="E32" t="str">
-        <v>01/12/2024 23:24</v>
+        <v>06/12/2024 08:40</v>
       </c>
       <c r="F32" t="str">
-        <v>AMAZON</v>
+        <v>SHEIN</v>
       </c>
       <c r="G32" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H32" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="33">
@@ -1249,25 +1249,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>ZZX-7S43</v>
+        <v>WBF-8S94</v>
       </c>
       <c r="C33" t="str">
         <v>GABRIELA</v>
       </c>
       <c r="D33" t="str">
-        <v>01/12/2024 23:42</v>
+        <v>06/12/2024 08:34</v>
       </c>
       <c r="E33" t="str">
-        <v>01/12/2024 23:58</v>
+        <v>06/12/2024 08:52</v>
       </c>
       <c r="F33" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G33" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H33" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="34">
@@ -1275,25 +1275,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>QWV-6E18</v>
+        <v>KWU-1J55</v>
       </c>
       <c r="C34" t="str">
-        <v>ALINE</v>
+        <v>CAMILA</v>
       </c>
       <c r="D34" t="str">
-        <v>02/12/2024 00:00</v>
+        <v>06/12/2024 09:22</v>
       </c>
       <c r="E34" t="str">
-        <v>02/12/2024 00:15</v>
+        <v>06/12/2024 09:34</v>
       </c>
       <c r="F34" t="str">
         <v>AMAZON</v>
       </c>
       <c r="G34" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H34" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="35">
@@ -1301,25 +1301,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>ITB-2H00</v>
+        <v>AFS-8U46</v>
       </c>
       <c r="C35" t="str">
-        <v>LUZIA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D35" t="str">
-        <v>02/12/2024 00:37</v>
+        <v>06/12/2024 09:50</v>
       </c>
       <c r="E35" t="str">
-        <v>02/12/2024 00:56</v>
+        <v>06/12/2024 10:15</v>
       </c>
       <c r="F35" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G35" t="str">
         <v>REPROVADO</v>
       </c>
       <c r="H35" t="str">
-        <v>Sem irregularidades</v>
+        <v>Combustível abaixo do esperado</v>
       </c>
     </row>
     <row r="36">
@@ -1327,25 +1327,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>GHU-3B51</v>
+        <v>PYS-4E72</v>
       </c>
       <c r="C36" t="str">
-        <v>GIOVANA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D36" t="str">
-        <v>02/12/2024 01:01</v>
+        <v>06/12/2024 09:58</v>
       </c>
       <c r="E36" t="str">
-        <v>02/12/2024 01:22</v>
+        <v>06/12/2024 10:21</v>
       </c>
       <c r="F36" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>SHEIN</v>
       </c>
       <c r="G36" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H36" t="str">
-        <v>Documentação em ordem</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="37">
@@ -1353,25 +1353,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>HTG-8L88</v>
+        <v>SCX-6I05</v>
       </c>
       <c r="C37" t="str">
-        <v>CAMILA</v>
+        <v>ALINE</v>
       </c>
       <c r="D37" t="str">
-        <v>02/12/2024 01:31</v>
+        <v>07/12/2024 06:48</v>
       </c>
       <c r="E37" t="str">
-        <v>02/12/2024 01:52</v>
+        <v>07/12/2024 07:10</v>
       </c>
       <c r="F37" t="str">
-        <v>AMAZON</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G37" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H37" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="38">
@@ -1379,25 +1379,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>THV-8I77</v>
+        <v>RGG-0A59</v>
       </c>
       <c r="C38" t="str">
-        <v>GABRIELA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D38" t="str">
-        <v>02/12/2024 02:10</v>
+        <v>07/12/2024 07:04</v>
       </c>
       <c r="E38" t="str">
-        <v>02/12/2024 02:26</v>
+        <v>07/12/2024 07:09</v>
       </c>
       <c r="F38" t="str">
         <v>AMAZON</v>
       </c>
       <c r="G38" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H38" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="39">
@@ -1405,16 +1405,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>FIS-7A35</v>
+        <v>KRO-1B40</v>
       </c>
       <c r="C39" t="str">
-        <v>ALANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D39" t="str">
-        <v>02/12/2024 02:43</v>
+        <v>07/12/2024 12:49</v>
       </c>
       <c r="E39" t="str">
-        <v>02/12/2024 03:00</v>
+        <v>07/12/2024 12:58</v>
       </c>
       <c r="F39" t="str">
         <v>MAGAZINE LUIZA</v>
@@ -1431,25 +1431,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>SGM-3G83</v>
+        <v>TII-7Y54</v>
       </c>
       <c r="C40" t="str">
-        <v>GABRIELA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D40" t="str">
-        <v>02/12/2024 03:06</v>
+        <v>07/12/2024 14:06</v>
       </c>
       <c r="E40" t="str">
-        <v>02/12/2024 03:28</v>
+        <v>07/12/2024 14:20</v>
       </c>
       <c r="F40" t="str">
-        <v>SHEIN</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G40" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H40" t="str">
-        <v>Sem irregularidades</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="41">
@@ -1457,25 +1457,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>WKW-1S52</v>
+        <v>GPL-7K81</v>
       </c>
       <c r="C41" t="str">
-        <v>CAMILA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D41" t="str">
-        <v>02/12/2024 03:33</v>
+        <v>08/12/2024 07:17</v>
       </c>
       <c r="E41" t="str">
-        <v>02/12/2024 03:56</v>
+        <v>08/12/2024 07:40</v>
       </c>
       <c r="F41" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>SHEIN</v>
       </c>
       <c r="G41" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H41" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="42">
@@ -1483,19 +1483,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>VQF-2A29</v>
+        <v>OVU-5G86</v>
       </c>
       <c r="C42" t="str">
-        <v>GABRIELA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D42" t="str">
-        <v>02/12/2024 04:01</v>
+        <v>08/12/2024 07:18</v>
       </c>
       <c r="E42" t="str">
-        <v>02/12/2024 04:18</v>
+        <v>08/12/2024 07:36</v>
       </c>
       <c r="F42" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G42" t="str">
         <v>APROVADO</v>
@@ -1509,19 +1509,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>LRL-5X67</v>
+        <v>JXU-0I20</v>
       </c>
       <c r="C43" t="str">
-        <v>CAMILA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D43" t="str">
-        <v>02/12/2024 04:39</v>
+        <v>08/12/2024 08:52</v>
       </c>
       <c r="E43" t="str">
-        <v>02/12/2024 04:58</v>
+        <v>08/12/2024 09:18</v>
       </c>
       <c r="F43" t="str">
-        <v>AMAZON</v>
+        <v>SHEIN</v>
       </c>
       <c r="G43" t="str">
         <v>APROVADO</v>
@@ -1535,19 +1535,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>XNN-5F46</v>
+        <v>PFY-6K19</v>
       </c>
       <c r="C44" t="str">
-        <v>ALANA</v>
+        <v>ALINE</v>
       </c>
       <c r="D44" t="str">
-        <v>02/12/2024 05:05</v>
+        <v>08/12/2024 09:49</v>
       </c>
       <c r="E44" t="str">
-        <v>02/12/2024 05:29</v>
+        <v>08/12/2024 10:20</v>
       </c>
       <c r="F44" t="str">
-        <v>SHEIN</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G44" t="str">
         <v>APROVADO</v>
@@ -1561,25 +1561,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>MSA-7Q40</v>
+        <v>AJF-1H53</v>
       </c>
       <c r="C45" t="str">
-        <v>GIOVANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D45" t="str">
-        <v>02/12/2024 05:37</v>
+        <v>08/12/2024 10:08</v>
       </c>
       <c r="E45" t="str">
-        <v>02/12/2024 05:54</v>
+        <v>08/12/2024 10:35</v>
       </c>
       <c r="F45" t="str">
         <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G45" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H45" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="46">
@@ -1587,25 +1587,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="str">
-        <v>JIS-3U42</v>
+        <v>JWG-4U34</v>
       </c>
       <c r="C46" t="str">
-        <v>CAMILA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D46" t="str">
-        <v>02/12/2024 06:01</v>
+        <v>09/12/2024 06:22</v>
       </c>
       <c r="E46" t="str">
-        <v>02/12/2024 06:17</v>
+        <v>09/12/2024 06:44</v>
       </c>
       <c r="F46" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G46" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H46" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="47">
@@ -1613,25 +1613,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="str">
-        <v>OSQ-9K76</v>
+        <v>PIS-7O23</v>
       </c>
       <c r="C47" t="str">
         <v>CAMILA</v>
       </c>
       <c r="D47" t="str">
-        <v>02/12/2024 06:34</v>
+        <v>09/12/2024 07:25</v>
       </c>
       <c r="E47" t="str">
-        <v>02/12/2024 06:52</v>
+        <v>09/12/2024 07:42</v>
       </c>
       <c r="F47" t="str">
         <v>MERCADO LIVRE</v>
       </c>
       <c r="G47" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H47" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="48">
@@ -1639,25 +1639,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="str">
-        <v>YNG-2K25</v>
+        <v>EWS-5D76</v>
       </c>
       <c r="C48" t="str">
-        <v>GIOVANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D48" t="str">
-        <v>02/12/2024 07:00</v>
+        <v>09/12/2024 07:42</v>
       </c>
       <c r="E48" t="str">
-        <v>02/12/2024 07:21</v>
+        <v>09/12/2024 07:56</v>
       </c>
       <c r="F48" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>AMAZON</v>
       </c>
       <c r="G48" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H48" t="str">
-        <v>Sem irregularidades</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="49">
@@ -1665,25 +1665,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="str">
-        <v>TQV-1B01</v>
+        <v>IXZ-1J54</v>
       </c>
       <c r="C49" t="str">
-        <v>CAMILA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D49" t="str">
-        <v>02/12/2024 07:35</v>
+        <v>09/12/2024 07:51</v>
       </c>
       <c r="E49" t="str">
-        <v>02/12/2024 07:53</v>
+        <v>09/12/2024 08:06</v>
       </c>
       <c r="F49" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>SHEIN</v>
       </c>
       <c r="G49" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H49" t="str">
-        <v>Espelho retrovisor danificado</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="50">
@@ -1691,25 +1691,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="str">
-        <v>CZP-7V90</v>
+        <v>LUH-3B87</v>
       </c>
       <c r="C50" t="str">
-        <v>GIOVANA</v>
+        <v>ALINE</v>
       </c>
       <c r="D50" t="str">
-        <v>02/12/2024 08:09</v>
+        <v>09/12/2024 07:57</v>
       </c>
       <c r="E50" t="str">
-        <v>02/12/2024 08:25</v>
+        <v>09/12/2024 08:12</v>
       </c>
       <c r="F50" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G50" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H50" t="str">
-        <v>Limpeza necessária</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="51">
@@ -1717,16 +1717,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="str">
-        <v>HCT-0O75</v>
+        <v>QVT-7W82</v>
       </c>
       <c r="C51" t="str">
-        <v>LUZIA</v>
+        <v>ALANA</v>
       </c>
       <c r="D51" t="str">
-        <v>02/12/2024 08:32</v>
+        <v>09/12/2024 08:09</v>
       </c>
       <c r="E51" t="str">
-        <v>02/12/2024 08:51</v>
+        <v>09/12/2024 08:30</v>
       </c>
       <c r="F51" t="str">
         <v>MERCADO LIVRE</v>
@@ -1735,7 +1735,7 @@
         <v>APROVADO</v>
       </c>
       <c r="H51" t="str">
-        <v>Documentação em ordem</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="52">
@@ -1743,25 +1743,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="str">
-        <v>SRX-6E10</v>
+        <v>CKB-2Q03</v>
       </c>
       <c r="C52" t="str">
-        <v>GABRIELA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D52" t="str">
-        <v>02/12/2024 09:00</v>
+        <v>09/12/2024 08:15</v>
       </c>
       <c r="E52" t="str">
-        <v>02/12/2024 09:20</v>
+        <v>09/12/2024 08:28</v>
       </c>
       <c r="F52" t="str">
         <v>AMAZON</v>
       </c>
       <c r="G52" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H52" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="53">
@@ -1769,25 +1769,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="str">
-        <v>NNZ-4H68</v>
+        <v>HUP-2P65</v>
       </c>
       <c r="C53" t="str">
-        <v>GIOVANA</v>
+        <v>ALANA</v>
       </c>
       <c r="D53" t="str">
-        <v>02/12/2024 09:42</v>
+        <v>09/12/2024 09:08</v>
       </c>
       <c r="E53" t="str">
-        <v>02/12/2024 10:01</v>
+        <v>09/12/2024 09:18</v>
       </c>
       <c r="F53" t="str">
-        <v>AMAZON</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G53" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H53" t="str">
-        <v>Sem irregularidades</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="54">
@@ -1795,25 +1795,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="str">
-        <v>NST-2C76</v>
+        <v>KDP-3Y19</v>
       </c>
       <c r="C54" t="str">
-        <v>ALANA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D54" t="str">
-        <v>02/12/2024 10:00</v>
+        <v>09/12/2024 10:06</v>
       </c>
       <c r="E54" t="str">
-        <v>02/12/2024 10:17</v>
+        <v>09/12/2024 10:11</v>
       </c>
       <c r="F54" t="str">
-        <v>AMAZON</v>
+        <v>SHEIN</v>
       </c>
       <c r="G54" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H54" t="str">
-        <v>Sem irregularidades</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="55">
@@ -1821,25 +1821,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="str">
-        <v>VOF-6S18</v>
+        <v>EXW-7W15</v>
       </c>
       <c r="C55" t="str">
         <v>ALANA</v>
       </c>
       <c r="D55" t="str">
-        <v>02/12/2024 10:33</v>
+        <v>09/12/2024 10:17</v>
       </c>
       <c r="E55" t="str">
-        <v>02/12/2024 10:54</v>
+        <v>09/12/2024 10:29</v>
       </c>
       <c r="F55" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>SHEIN</v>
       </c>
       <c r="G55" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H55" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="56">
@@ -1847,19 +1847,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="str">
-        <v>GZU-4K30</v>
+        <v>NWK-1I47</v>
       </c>
       <c r="C56" t="str">
-        <v>ALINE</v>
+        <v>LUZIA</v>
       </c>
       <c r="D56" t="str">
-        <v>02/12/2024 11:10</v>
+        <v>10/12/2024 07:15</v>
       </c>
       <c r="E56" t="str">
-        <v>02/12/2024 11:32</v>
+        <v>10/12/2024 07:20</v>
       </c>
       <c r="F56" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>SHEIN</v>
       </c>
       <c r="G56" t="str">
         <v>APROVADO</v>
@@ -1873,25 +1873,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="str">
-        <v>YHT-0J66</v>
+        <v>RMI-2U00</v>
       </c>
       <c r="C57" t="str">
-        <v>ALINE</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D57" t="str">
-        <v>02/12/2024 11:38</v>
+        <v>10/12/2024 08:56</v>
       </c>
       <c r="E57" t="str">
-        <v>02/12/2024 12:01</v>
+        <v>10/12/2024 09:16</v>
       </c>
       <c r="F57" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>SHEIN</v>
       </c>
       <c r="G57" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H57" t="str">
-        <v>Pequeno risco na lateral direita</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="58">
@@ -1899,25 +1899,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="str">
-        <v>NST-0Z96</v>
+        <v>BPM-8F61</v>
       </c>
       <c r="C58" t="str">
-        <v>ALANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D58" t="str">
-        <v>02/12/2024 12:01</v>
+        <v>10/12/2024 09:39</v>
       </c>
       <c r="E58" t="str">
-        <v>02/12/2024 12:16</v>
+        <v>10/12/2024 09:54</v>
       </c>
       <c r="F58" t="str">
         <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G58" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H58" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="59">
@@ -1925,25 +1925,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="str">
-        <v>YGN-1X52</v>
+        <v>KBM-2M11</v>
       </c>
       <c r="C59" t="str">
-        <v>ALINE</v>
+        <v>CAMILA</v>
       </c>
       <c r="D59" t="str">
-        <v>02/12/2024 12:42</v>
+        <v>10/12/2024 09:51</v>
       </c>
       <c r="E59" t="str">
-        <v>02/12/2024 13:04</v>
+        <v>10/12/2024 10:10</v>
       </c>
       <c r="F59" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G59" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H59" t="str">
-        <v>Pequeno risco na lateral direita</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="60">
@@ -1951,25 +1951,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="str">
-        <v>TPN-4A10</v>
+        <v>NKC-6J64</v>
       </c>
       <c r="C60" t="str">
-        <v>ALANA</v>
+        <v>ALINE</v>
       </c>
       <c r="D60" t="str">
-        <v>02/12/2024 13:11</v>
+        <v>11/12/2024 06:08</v>
       </c>
       <c r="E60" t="str">
-        <v>02/12/2024 13:29</v>
+        <v>11/12/2024 06:36</v>
       </c>
       <c r="F60" t="str">
-        <v>SHEIN</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G60" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H60" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="61">
@@ -1977,25 +1977,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="str">
-        <v>PYQ-4V82</v>
+        <v>AUX-7Y66</v>
       </c>
       <c r="C61" t="str">
-        <v>GIOVANA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D61" t="str">
-        <v>02/12/2024 13:37</v>
+        <v>11/12/2024 08:16</v>
       </c>
       <c r="E61" t="str">
-        <v>02/12/2024 14:01</v>
+        <v>11/12/2024 08:28</v>
       </c>
       <c r="F61" t="str">
-        <v>AMAZON</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G61" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H61" t="str">
-        <v>Documentação em ordem</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="62">
@@ -2003,25 +2003,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="str">
-        <v>UNB-4G71</v>
+        <v>WXR-3G92</v>
       </c>
       <c r="C62" t="str">
-        <v>LUZIA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D62" t="str">
-        <v>02/12/2024 14:02</v>
+        <v>11/12/2024 09:22</v>
       </c>
       <c r="E62" t="str">
-        <v>02/12/2024 14:17</v>
+        <v>11/12/2024 09:27</v>
       </c>
       <c r="F62" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>SHEIN</v>
       </c>
       <c r="G62" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H62" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="63">
@@ -2029,25 +2029,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="str">
-        <v>ENI-9Q32</v>
+        <v>LKZ-7P42</v>
       </c>
       <c r="C63" t="str">
-        <v>GIOVANA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D63" t="str">
-        <v>02/12/2024 14:38</v>
+        <v>11/12/2024 09:36</v>
       </c>
       <c r="E63" t="str">
-        <v>02/12/2024 15:00</v>
+        <v>11/12/2024 09:53</v>
       </c>
       <c r="F63" t="str">
-        <v>AMAZON</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G63" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H63" t="str">
-        <v>Pneus verificados e calibrados</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="64">
@@ -2055,25 +2055,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="str">
-        <v>TTE-8C98</v>
+        <v>ONL-8W89</v>
       </c>
       <c r="C64" t="str">
-        <v>CAMILA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D64" t="str">
-        <v>02/12/2024 15:06</v>
+        <v>11/12/2024 09:54</v>
       </c>
       <c r="E64" t="str">
-        <v>02/12/2024 15:24</v>
+        <v>11/12/2024 10:19</v>
       </c>
       <c r="F64" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G64" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H64" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="65">
@@ -2081,25 +2081,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="str">
-        <v>EUF-6K47</v>
+        <v>TQJ-1G51</v>
       </c>
       <c r="C65" t="str">
-        <v>LUZIA</v>
+        <v>ALINE</v>
       </c>
       <c r="D65" t="str">
-        <v>02/12/2024 15:33</v>
+        <v>11/12/2024 10:58</v>
       </c>
       <c r="E65" t="str">
-        <v>02/12/2024 15:57</v>
+        <v>11/12/2024 11:05</v>
       </c>
       <c r="F65" t="str">
         <v>MERCADO LIVRE</v>
       </c>
       <c r="G65" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H65" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="66">
@@ -2107,25 +2107,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="str">
-        <v>LKX-6A14</v>
+        <v>DXX-5A16</v>
       </c>
       <c r="C66" t="str">
         <v>ALANA</v>
       </c>
       <c r="D66" t="str">
-        <v>02/12/2024 16:08</v>
+        <v>12/12/2024 07:36</v>
       </c>
       <c r="E66" t="str">
-        <v>02/12/2024 16:27</v>
+        <v>12/12/2024 07:48</v>
       </c>
       <c r="F66" t="str">
         <v>SHEIN</v>
       </c>
       <c r="G66" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H66" t="str">
-        <v>Sem irregularidades</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="67">
@@ -2133,25 +2133,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="str">
-        <v>FWS-5D58</v>
+        <v>OIP-9H08</v>
       </c>
       <c r="C67" t="str">
-        <v>GABRIELA</v>
+        <v>ALINE</v>
       </c>
       <c r="D67" t="str">
-        <v>02/12/2024 16:33</v>
+        <v>12/12/2024 08:35</v>
       </c>
       <c r="E67" t="str">
-        <v>02/12/2024 16:48</v>
+        <v>12/12/2024 08:54</v>
       </c>
       <c r="F67" t="str">
-        <v>SHEIN</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G67" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H67" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="68">
@@ -2159,25 +2159,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="str">
-        <v>UCN-9K56</v>
+        <v>XAP-3H19</v>
       </c>
       <c r="C68" t="str">
-        <v>ALINE</v>
+        <v>LUZIA</v>
       </c>
       <c r="D68" t="str">
-        <v>02/12/2024 17:06</v>
+        <v>12/12/2024 09:40</v>
       </c>
       <c r="E68" t="str">
-        <v>02/12/2024 17:23</v>
+        <v>12/12/2024 09:47</v>
       </c>
       <c r="F68" t="str">
-        <v>SHEIN</v>
+        <v>AMAZON</v>
       </c>
       <c r="G68" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H68" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="69">
@@ -2185,25 +2185,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="str">
-        <v>PTJ-6T02</v>
+        <v>JJK-1Y66</v>
       </c>
       <c r="C69" t="str">
-        <v>GABRIELA</v>
+        <v>ALINE</v>
       </c>
       <c r="D69" t="str">
-        <v>02/12/2024 17:40</v>
+        <v>13/12/2024 06:05</v>
       </c>
       <c r="E69" t="str">
-        <v>02/12/2024 18:00</v>
+        <v>13/12/2024 06:33</v>
       </c>
       <c r="F69" t="str">
-        <v>AMAZON</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G69" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H69" t="str">
-        <v>Veículo em perfeitas condições</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="70">
@@ -2211,25 +2211,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="str">
-        <v>GWH-5Y94</v>
+        <v>JNS-8R23</v>
       </c>
       <c r="C70" t="str">
-        <v>GIOVANA</v>
+        <v>ALINE</v>
       </c>
       <c r="D70" t="str">
-        <v>02/12/2024 18:13</v>
+        <v>13/12/2024 06:23</v>
       </c>
       <c r="E70" t="str">
-        <v>02/12/2024 18:30</v>
+        <v>13/12/2024 06:43</v>
       </c>
       <c r="F70" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>SHEIN</v>
       </c>
       <c r="G70" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H70" t="str">
-        <v>Pneus verificados e calibrados</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="71">
@@ -2237,19 +2237,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="str">
-        <v>BVN-8B73</v>
+        <v>KUT-5F42</v>
       </c>
       <c r="C71" t="str">
-        <v>GIOVANA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D71" t="str">
-        <v>02/12/2024 18:40</v>
+        <v>13/12/2024 07:09</v>
       </c>
       <c r="E71" t="str">
-        <v>02/12/2024 18:58</v>
+        <v>13/12/2024 07:24</v>
       </c>
       <c r="F71" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>SHEIN</v>
       </c>
       <c r="G71" t="str">
         <v>APROVADO</v>
@@ -2263,25 +2263,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="str">
-        <v>LFI-1R34</v>
+        <v>LYA-3T21</v>
       </c>
       <c r="C72" t="str">
-        <v>LUZIA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D72" t="str">
-        <v>02/12/2024 19:11</v>
+        <v>13/12/2024 09:07</v>
       </c>
       <c r="E72" t="str">
-        <v>02/12/2024 19:32</v>
+        <v>13/12/2024 09:34</v>
       </c>
       <c r="F72" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G72" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H72" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="73">
@@ -2289,25 +2289,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="str">
-        <v>HMR-8C52</v>
+        <v>YCM-9M37</v>
       </c>
       <c r="C73" t="str">
-        <v>ALINE</v>
+        <v>ALANA</v>
       </c>
       <c r="D73" t="str">
-        <v>02/12/2024 19:35</v>
+        <v>13/12/2024 09:29</v>
       </c>
       <c r="E73" t="str">
-        <v>02/12/2024 19:52</v>
+        <v>13/12/2024 09:41</v>
       </c>
       <c r="F73" t="str">
         <v>SHEIN</v>
       </c>
       <c r="G73" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H73" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="74">
@@ -2315,25 +2315,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="str">
-        <v>HQJ-3C17</v>
+        <v>DMK-9X31</v>
       </c>
       <c r="C74" t="str">
-        <v>GIOVANA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D74" t="str">
-        <v>02/12/2024 20:03</v>
+        <v>14/12/2024 06:26</v>
       </c>
       <c r="E74" t="str">
-        <v>02/12/2024 20:19</v>
+        <v>14/12/2024 06:49</v>
       </c>
       <c r="F74" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>SHEIN</v>
       </c>
       <c r="G74" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H74" t="str">
-        <v>Espelho retrovisor danificado</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="75">
@@ -2341,25 +2341,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="str">
-        <v>XEM-3H17</v>
+        <v>NHP-8C18</v>
       </c>
       <c r="C75" t="str">
-        <v>CAMILA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D75" t="str">
-        <v>02/12/2024 20:37</v>
+        <v>14/12/2024 06:48</v>
       </c>
       <c r="E75" t="str">
-        <v>02/12/2024 20:57</v>
+        <v>14/12/2024 06:59</v>
       </c>
       <c r="F75" t="str">
-        <v>AMAZON</v>
+        <v>SHEIN</v>
       </c>
       <c r="G75" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H75" t="str">
-        <v>Espelho retrovisor danificado</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="76">
@@ -2367,25 +2367,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="str">
-        <v>BBB-6F10</v>
+        <v>CZU-3U05</v>
       </c>
       <c r="C76" t="str">
-        <v>ALANA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D76" t="str">
-        <v>02/12/2024 21:13</v>
+        <v>14/12/2024 08:01</v>
       </c>
       <c r="E76" t="str">
-        <v>02/12/2024 21:35</v>
+        <v>14/12/2024 08:17</v>
       </c>
       <c r="F76" t="str">
         <v>AMAZON</v>
       </c>
       <c r="G76" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H76" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="77">
@@ -2393,19 +2393,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="str">
-        <v>ZXO-8C58</v>
+        <v>WKP-4R30</v>
       </c>
       <c r="C77" t="str">
-        <v>ALINE</v>
+        <v>CAMILA</v>
       </c>
       <c r="D77" t="str">
-        <v>02/12/2024 21:44</v>
+        <v>14/12/2024 08:37</v>
       </c>
       <c r="E77" t="str">
-        <v>02/12/2024 21:59</v>
+        <v>14/12/2024 08:49</v>
       </c>
       <c r="F77" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G77" t="str">
         <v>APROVADO</v>
@@ -2419,16 +2419,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="str">
-        <v>BHL-0J90</v>
+        <v>QCH-2D64</v>
       </c>
       <c r="C78" t="str">
-        <v>LUZIA</v>
+        <v>ALINE</v>
       </c>
       <c r="D78" t="str">
-        <v>02/12/2024 22:07</v>
+        <v>14/12/2024 08:59</v>
       </c>
       <c r="E78" t="str">
-        <v>02/12/2024 22:29</v>
+        <v>14/12/2024 09:19</v>
       </c>
       <c r="F78" t="str">
         <v>SHEIN</v>
@@ -2437,7 +2437,7 @@
         <v>APROVADO</v>
       </c>
       <c r="H78" t="str">
-        <v>Pequeno risco na lateral direita</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="79">
@@ -2445,16 +2445,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="str">
-        <v>HZJ-3W75</v>
+        <v>SVA-3E26</v>
       </c>
       <c r="C79" t="str">
-        <v>GIOVANA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D79" t="str">
-        <v>02/12/2024 22:38</v>
+        <v>14/12/2024 09:33</v>
       </c>
       <c r="E79" t="str">
-        <v>02/12/2024 22:58</v>
+        <v>14/12/2024 09:39</v>
       </c>
       <c r="F79" t="str">
         <v>AMAZON</v>
@@ -2471,16 +2471,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="str">
-        <v>KRO-4Z10</v>
+        <v>YJS-6N95</v>
       </c>
       <c r="C80" t="str">
-        <v>GABRIELA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D80" t="str">
-        <v>02/12/2024 23:09</v>
+        <v>15/12/2024 07:06</v>
       </c>
       <c r="E80" t="str">
-        <v>02/12/2024 23:25</v>
+        <v>15/12/2024 07:13</v>
       </c>
       <c r="F80" t="str">
         <v>MAGAZINE LUIZA</v>
@@ -2489,7 +2489,7 @@
         <v>APROVADO</v>
       </c>
       <c r="H80" t="str">
-        <v>Pneus verificados e calibrados</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="81">
@@ -2497,25 +2497,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="str">
-        <v>DOE-5T20</v>
+        <v>TFU-5N43</v>
       </c>
       <c r="C81" t="str">
-        <v>ALANA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D81" t="str">
-        <v>02/12/2024 23:43</v>
+        <v>15/12/2024 08:55</v>
       </c>
       <c r="E81" t="str">
-        <v>03/12/2024 00:05</v>
+        <v>15/12/2024 09:16</v>
       </c>
       <c r="F81" t="str">
-        <v>SHEIN</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G81" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H81" t="str">
-        <v>Pequeno risco na lateral direita</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="82">
@@ -2523,25 +2523,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="str">
-        <v>JPC-9Y35</v>
+        <v>YCL-4Z21</v>
       </c>
       <c r="C82" t="str">
         <v>LUZIA</v>
       </c>
       <c r="D82" t="str">
-        <v>03/12/2024 00:05</v>
+        <v>15/12/2024 08:57</v>
       </c>
       <c r="E82" t="str">
-        <v>03/12/2024 00:24</v>
+        <v>15/12/2024 09:11</v>
       </c>
       <c r="F82" t="str">
-        <v>SHEIN</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G82" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H82" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="83">
@@ -2549,19 +2549,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="str">
-        <v>IZN-8R94</v>
+        <v>KZR-0Y12</v>
       </c>
       <c r="C83" t="str">
-        <v>ALANA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D83" t="str">
-        <v>03/12/2024 00:30</v>
+        <v>15/12/2024 09:00</v>
       </c>
       <c r="E83" t="str">
-        <v>03/12/2024 00:51</v>
+        <v>15/12/2024 09:24</v>
       </c>
       <c r="F83" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>AMAZON</v>
       </c>
       <c r="G83" t="str">
         <v>APROVADO</v>
@@ -2575,16 +2575,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="str">
-        <v>ZGO-8G45</v>
+        <v>LCE-4R30</v>
       </c>
       <c r="C84" t="str">
-        <v>GABRIELA</v>
+        <v>ALANA</v>
       </c>
       <c r="D84" t="str">
-        <v>03/12/2024 01:02</v>
+        <v>15/12/2024 09:13</v>
       </c>
       <c r="E84" t="str">
-        <v>03/12/2024 01:24</v>
+        <v>15/12/2024 09:34</v>
       </c>
       <c r="F84" t="str">
         <v>SHEIN</v>
@@ -2601,25 +2601,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="str">
-        <v>GYB-5O54</v>
+        <v>NYR-8J50</v>
       </c>
       <c r="C85" t="str">
-        <v>GABRIELA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D85" t="str">
-        <v>03/12/2024 01:31</v>
+        <v>15/12/2024 09:54</v>
       </c>
       <c r="E85" t="str">
-        <v>03/12/2024 01:47</v>
+        <v>15/12/2024 10:20</v>
       </c>
       <c r="F85" t="str">
         <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G85" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H85" t="str">
-        <v>Farol esquerdo com defeito</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="86">
@@ -2627,25 +2627,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="str">
-        <v>SPU-5I55</v>
+        <v>EEF-2N45</v>
       </c>
       <c r="C86" t="str">
-        <v>GIOVANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D86" t="str">
-        <v>03/12/2024 02:09</v>
+        <v>16/12/2024 07:33</v>
       </c>
       <c r="E86" t="str">
-        <v>03/12/2024 02:24</v>
+        <v>16/12/2024 07:41</v>
       </c>
       <c r="F86" t="str">
         <v>MERCADO LIVRE</v>
       </c>
       <c r="G86" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H86" t="str">
-        <v>Sem irregularidades</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="87">
@@ -2653,25 +2653,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="str">
-        <v>JVG-2V45</v>
+        <v>XDW-4B20</v>
       </c>
       <c r="C87" t="str">
-        <v>ALANA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D87" t="str">
-        <v>03/12/2024 02:40</v>
+        <v>16/12/2024 08:51</v>
       </c>
       <c r="E87" t="str">
-        <v>03/12/2024 02:58</v>
+        <v>16/12/2024 09:17</v>
       </c>
       <c r="F87" t="str">
-        <v>AMAZON</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G87" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H87" t="str">
-        <v>Sem irregularidades</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="88">
@@ -2679,25 +2679,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="str">
-        <v>LWF-4E94</v>
+        <v>SBB-1A41</v>
       </c>
       <c r="C88" t="str">
-        <v>GABRIELA</v>
+        <v>ALANA</v>
       </c>
       <c r="D88" t="str">
-        <v>03/12/2024 03:00</v>
+        <v>16/12/2024 08:56</v>
       </c>
       <c r="E88" t="str">
-        <v>03/12/2024 03:21</v>
+        <v>16/12/2024 09:15</v>
       </c>
       <c r="F88" t="str">
-        <v>AMAZON</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G88" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H88" t="str">
-        <v>Documentação em ordem</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="89">
@@ -2705,16 +2705,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="str">
-        <v>YBC-5T16</v>
+        <v>NSD-4X66</v>
       </c>
       <c r="C89" t="str">
-        <v>ALINE</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D89" t="str">
-        <v>03/12/2024 03:43</v>
+        <v>16/12/2024 10:06</v>
       </c>
       <c r="E89" t="str">
-        <v>03/12/2024 04:05</v>
+        <v>16/12/2024 10:14</v>
       </c>
       <c r="F89" t="str">
         <v>AMAZON</v>
@@ -2723,7 +2723,7 @@
         <v>APROVADO</v>
       </c>
       <c r="H89" t="str">
-        <v>Documentação em ordem</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="90">
@@ -2731,19 +2731,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="str">
-        <v>YEX-0X20</v>
+        <v>VYQ-3T17</v>
       </c>
       <c r="C90" t="str">
-        <v>GABRIELA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D90" t="str">
-        <v>03/12/2024 04:14</v>
+        <v>16/12/2024 10:49</v>
       </c>
       <c r="E90" t="str">
-        <v>03/12/2024 04:37</v>
+        <v>16/12/2024 10:58</v>
       </c>
       <c r="F90" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G90" t="str">
         <v>APROVADO</v>
@@ -2757,25 +2757,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="str">
-        <v>RAT-0T79</v>
+        <v>TOB-8W23</v>
       </c>
       <c r="C91" t="str">
-        <v>LUZIA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D91" t="str">
-        <v>03/12/2024 04:36</v>
+        <v>16/12/2024 12:05</v>
       </c>
       <c r="E91" t="str">
-        <v>03/12/2024 04:54</v>
+        <v>16/12/2024 12:29</v>
       </c>
       <c r="F91" t="str">
         <v>AMAZON</v>
       </c>
       <c r="G91" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H91" t="str">
-        <v>Sem irregularidades</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="92">
@@ -2783,16 +2783,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="str">
-        <v>LWT-0S78</v>
+        <v>IIC-2C31</v>
       </c>
       <c r="C92" t="str">
-        <v>ALANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D92" t="str">
-        <v>03/12/2024 05:07</v>
+        <v>17/12/2024 07:05</v>
       </c>
       <c r="E92" t="str">
-        <v>03/12/2024 05:23</v>
+        <v>17/12/2024 07:36</v>
       </c>
       <c r="F92" t="str">
         <v>SHEIN</v>
@@ -2809,25 +2809,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="str">
-        <v>RAS-1K96</v>
+        <v>QLP-9C32</v>
       </c>
       <c r="C93" t="str">
         <v>GABRIELA</v>
       </c>
       <c r="D93" t="str">
-        <v>03/12/2024 05:36</v>
+        <v>17/12/2024 07:54</v>
       </c>
       <c r="E93" t="str">
-        <v>03/12/2024 05:53</v>
+        <v>17/12/2024 08:17</v>
       </c>
       <c r="F93" t="str">
-        <v>MERCADO LIVRE</v>
+        <v>AMAZON</v>
       </c>
       <c r="G93" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H93" t="str">
-        <v>Pequeno risco na lateral direita</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="94">
@@ -2835,25 +2835,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="str">
-        <v>OHK-6A97</v>
+        <v>EYN-5K01</v>
       </c>
       <c r="C94" t="str">
-        <v>GIOVANA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D94" t="str">
-        <v>03/12/2024 06:11</v>
+        <v>17/12/2024 09:36</v>
       </c>
       <c r="E94" t="str">
-        <v>03/12/2024 06:32</v>
+        <v>17/12/2024 09:59</v>
       </c>
       <c r="F94" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>AMAZON</v>
       </c>
       <c r="G94" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H94" t="str">
-        <v>Pequeno risco na lateral direita</v>
+        <v>Limpeza necessária</v>
       </c>
     </row>
     <row r="95">
@@ -2861,25 +2861,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="str">
-        <v>MGK-6X12</v>
+        <v>VRA-7C17</v>
       </c>
       <c r="C95" t="str">
-        <v>LUZIA</v>
+        <v>ALANA</v>
       </c>
       <c r="D95" t="str">
-        <v>03/12/2024 06:36</v>
+        <v>17/12/2024 09:55</v>
       </c>
       <c r="E95" t="str">
-        <v>03/12/2024 06:59</v>
+        <v>17/12/2024 10:05</v>
       </c>
       <c r="F95" t="str">
-        <v>MAGAZINE LUIZA</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G95" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H95" t="str">
-        <v>Limpeza necessária</v>
+        <v>Veículo em perfeitas condições</v>
       </c>
     </row>
     <row r="96">
@@ -2887,25 +2887,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="str">
-        <v>XRB-9S86</v>
+        <v>SRA-8H15</v>
       </c>
       <c r="C96" t="str">
-        <v>LUZIA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D96" t="str">
-        <v>03/12/2024 07:00</v>
+        <v>18/12/2024 08:17</v>
       </c>
       <c r="E96" t="str">
-        <v>03/12/2024 07:24</v>
+        <v>18/12/2024 08:43</v>
       </c>
       <c r="F96" t="str">
-        <v>AMAZON</v>
+        <v>MAGAZINE LUIZA</v>
       </c>
       <c r="G96" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H96" t="str">
-        <v>Pequeno risco na lateral direita</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="97">
@@ -2913,25 +2913,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="str">
-        <v>ZZE-4G18</v>
+        <v>MLT-7E69</v>
       </c>
       <c r="C97" t="str">
-        <v>GIOVANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D97" t="str">
-        <v>03/12/2024 07:32</v>
+        <v>18/12/2024 08:52</v>
       </c>
       <c r="E97" t="str">
-        <v>03/12/2024 07:50</v>
+        <v>18/12/2024 09:18</v>
       </c>
       <c r="F97" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G97" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H97" t="str">
-        <v>Documentação em ordem</v>
+        <v>Pequeno risco na lateral direita</v>
       </c>
     </row>
     <row r="98">
@@ -2939,19 +2939,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="str">
-        <v>PPQ-6Q85</v>
+        <v>WIF-6S21</v>
       </c>
       <c r="C98" t="str">
-        <v>ALANA</v>
+        <v>GIOVANA</v>
       </c>
       <c r="D98" t="str">
-        <v>03/12/2024 08:02</v>
+        <v>18/12/2024 10:09</v>
       </c>
       <c r="E98" t="str">
-        <v>03/12/2024 08:17</v>
+        <v>18/12/2024 10:36</v>
       </c>
       <c r="F98" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G98" t="str">
         <v>APROVADO</v>
@@ -2965,25 +2965,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="str">
-        <v>UUX-9D74</v>
+        <v>KZV-8E89</v>
       </c>
       <c r="C99" t="str">
-        <v>ALANA</v>
+        <v>LUZIA</v>
       </c>
       <c r="D99" t="str">
-        <v>03/12/2024 08:38</v>
+        <v>19/12/2024 10:43</v>
       </c>
       <c r="E99" t="str">
-        <v>03/12/2024 08:57</v>
+        <v>19/12/2024 11:06</v>
       </c>
       <c r="F99" t="str">
-        <v>AMAZON</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G99" t="str">
         <v>APROVADO</v>
       </c>
       <c r="H99" t="str">
-        <v>Veículo em perfeitas condições</v>
+        <v>Pneus verificados e calibrados</v>
       </c>
     </row>
     <row r="100">
@@ -2991,25 +2991,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="str">
-        <v>SVK-5N75</v>
+        <v>OVQ-8L46</v>
       </c>
       <c r="C100" t="str">
-        <v>GABRIELA</v>
+        <v>CAMILA</v>
       </c>
       <c r="D100" t="str">
-        <v>03/12/2024 09:07</v>
+        <v>20/12/2024 09:38</v>
       </c>
       <c r="E100" t="str">
-        <v>03/12/2024 09:29</v>
+        <v>20/12/2024 09:44</v>
       </c>
       <c r="F100" t="str">
-        <v>SHEIN</v>
+        <v>AMAZON</v>
       </c>
       <c r="G100" t="str">
-        <v>REPROVADO</v>
+        <v>APROVADO</v>
       </c>
       <c r="H100" t="str">
-        <v>Combustível abaixo do esperado</v>
+        <v>Documentação em ordem</v>
       </c>
     </row>
     <row r="101">
@@ -3017,19 +3017,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="str">
-        <v>UIB-9D01</v>
+        <v>OCP-4T96</v>
       </c>
       <c r="C101" t="str">
-        <v>CAMILA</v>
+        <v>GABRIELA</v>
       </c>
       <c r="D101" t="str">
-        <v>03/12/2024 09:43</v>
+        <v>20/12/2024 10:53</v>
       </c>
       <c r="E101" t="str">
-        <v>03/12/2024 09:59</v>
+        <v>20/12/2024 11:13</v>
       </c>
       <c r="F101" t="str">
-        <v>SHEIN</v>
+        <v>MERCADO LIVRE</v>
       </c>
       <c r="G101" t="str">
         <v>APROVADO</v>
